--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T12:50:40+00:00</t>
+    <t>2024-02-28T12:55:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T12:55:15+00:00</t>
+    <t>2024-02-28T13:25:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T13:25:24+00:00</t>
+    <t>2024-02-28T13:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T13:32:51+00:00</t>
+    <t>2024-02-28T13:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T13:41:48+00:00</t>
+    <t>2024-02-28T13:47:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T13:47:23+00:00</t>
+    <t>2024-02-28T14:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-28T14:06:11+00:00</t>
+    <t>2024-04-29T11:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Charité (https://www.charite.de/)</t>
   </si>
   <si>
     <t>Description</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>correct-answers</t>
+    <t>answer-switch-rate</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://gb-best-media.charite.de/StructureDefinition/correct-answers</t>
+    <t>https://gb-best-media.charite.de/StructureDefinition/answer-switch-rate</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,13 +42,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CorrectAnswers</t>
+    <t>AnswerSwitchRate</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Correct Answers</t>
+    <t>Answer Switch Rate</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T11:45:31+00:00</t>
+    <t>2024-05-07T10:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension, um vom Questionnaire auf die korrekten Antworten innerhalb der QuestionnaireResponse zu referenzieren</t>
+    <t>Extension, um die Häufigkeit der Antwortwechsel im Questionnaire-Response anzugeben</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Questionnaire</t>
+    <t>element:QuestionnaireResponse.item</t>
   </si>
   <si>
     <t>Structure.ID</t>
@@ -322,17 +322,191 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">integer
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>answering-time</t>
+  </si>
+  <si>
+    <t>https://gb-best-media.charite.de/StructureDefinition/answering-time</t>
+  </si>
+  <si>
+    <t>AnsweringTime</t>
+  </si>
+  <si>
+    <t>Answer Time</t>
+  </si>
+  <si>
+    <t>Extension, um die Antwortzeit in Sekunden im Questionnaire-Response anzugeben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Extension.value[x].value</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>Extension.value[x].comparator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>Extension.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>Extension.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>correct-answers</t>
+  </si>
+  <si>
+    <t>https://gb-best-media.charite.de/StructureDefinition/correct-answers</t>
+  </si>
+  <si>
+    <t>CorrectAnswers</t>
+  </si>
+  <si>
+    <t>Correct Answers</t>
+  </si>
+  <si>
+    <t>Extension, um vom Questionnaire auf die korrekten Antworten innerhalb der QuestionnaireResponse zu referenzieren</t>
+  </si>
+  <si>
+    <t>element:Questionnaire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(QuestionnaireResponse)
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
 </sst>
@@ -467,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -639,6 +813,330 @@
         <v>38</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -646,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -655,11 +1153,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.59765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="18.56640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.40625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.40625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="8.95703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.64453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -669,25 +1167,25 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="234.15234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="24.59375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.0859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="50.4921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -1322,6 +1820,1779 @@
         <v>103</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="Q15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R23" s="2"/>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
